--- a/Shubhangi/Use_Case_V_0_3.xlsx
+++ b/Shubhangi/Use_Case_V_0_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="95">
   <si>
     <t>Column1</t>
   </si>
@@ -73,24 +73,6 @@
   </si>
   <si>
     <t>Check the functionality of Update</t>
-  </si>
-  <si>
-    <t>1.check that if click on update it will shows the 
-fields User_id,User_name,User_type,password,
-email_id,contact no,photo,address 1,address 2,
-city and state.
-2.check that user master not accepts the same user_id number ,it will be different.
-3.check that all the fields will be deleted .
-4.check that fields that we want to update that will
-be deleted and we can enter the new values.
-5.check that if mandatory fields left blank then
-it will not update it will pop_up an error message.
-6.check tthat if all mandatory fields are enter then
-it will update or not.
-7.check that if we enter all valid data then it will 
-update or not.
-8.check that if we enter invalid data then it will 
-update or not.</t>
   </si>
   <si>
     <t>S1.3</t>
@@ -140,21 +122,6 @@
 type master.</t>
   </si>
   <si>
-    <t>check the functionality of update for user
-type master.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.check that if we click on update it will shows all
-the fields user_type_id,user_type,user_type_description
-2.check that user_type_id will be different.
-3.check that user type master will not accept same 
-user id.
-4.check that if we left any field blank then it will update or not.
-5.check that if we enter all valid data it will update or not.
-6.check that if we enter invalid data it will update or not.
-</t>
-  </si>
-  <si>
     <t>check the functionality of delete for user_type_master.</t>
   </si>
   <si>
@@ -184,6 +151,187 @@
   <si>
     <t>Check the functionality of update for
 module master.</t>
+  </si>
+  <si>
+    <t>Check the functionality of delete tab for
+module master.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.check that if click on delete button then it will goes 
+to delete screen.
+2.check that it will shows all the fields .
+3.check that by click on delete tab it will delete all fields.
+4.check that if we  delete  one module master then it will not seen  in list.
+5.check that if we delete it then it will also delete
+from database or not.
+</t>
+  </si>
+  <si>
+    <t>Check the functionality of list tab for 
+module master.</t>
+  </si>
+  <si>
+    <t>1.check that list will show all fields i.e module id,
+module name.
+2.check that list will show all filled data no one
+field is empty.</t>
+  </si>
+  <si>
+    <t>User Types Module</t>
+  </si>
+  <si>
+    <t>Check the functionality of create tab
+for User Types Module.</t>
+  </si>
+  <si>
+    <t>check the functionality of update tab for
+user Types Module</t>
+  </si>
+  <si>
+    <t>check the functionality of delete tab for
+user Types Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.check that if click on delete button then it will goes to delete screen.
+2.check that it will shows all the fields .
+3.check that by clickign delete it will delete all fields.
+4.check the database that it will be deleted from 
+database or not.
+</t>
+  </si>
+  <si>
+    <t>Check the functionality of list for user 
+types Module.</t>
+  </si>
+  <si>
+    <t>1.check that list will show all fields i.e id,user-type-id,module-id,is Active status.
+2.check that list will show all filled data no one
+field is empty.</t>
+  </si>
+  <si>
+    <t>Action Master</t>
+  </si>
+  <si>
+    <t>Check the functionality of create tab
+for Action Master.</t>
+  </si>
+  <si>
+    <t>check the functionality of update tab for
+Action Master.</t>
+  </si>
+  <si>
+    <t>check the functionality of delete tab for
+Action Master.</t>
+  </si>
+  <si>
+    <t>check the functionality of list  for
+Action Master.</t>
+  </si>
+  <si>
+    <t>User-Security-Access-Details</t>
+  </si>
+  <si>
+    <t>check the functionality of create tab for
+user-security-access-details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the functionality of update tab for
+user-security-access-details </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the functionality of delete tab for
+user-security-access-details </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the functionality of list tab for
+user-security-access-details </t>
+  </si>
+  <si>
+    <t>Household Master</t>
+  </si>
+  <si>
+    <t>Check the functionality of create tab for
+Household master.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>check the functionality for update tab 
+for household master.</t>
+  </si>
+  <si>
+    <t>check the functionality for delete tab 
+for household master.</t>
+  </si>
+  <si>
+    <t>RFID Household Details</t>
+  </si>
+  <si>
+    <t>check the functionality for create  tab 
+for RFID household details.</t>
+  </si>
+  <si>
+    <t>check the functionality for update  tab 
+for RFID household details.</t>
+  </si>
+  <si>
+    <t>check the functionality for delete tab 
+for RFID household details.</t>
+  </si>
+  <si>
+    <t>check the functionality for list tab 
+for RFID household details.</t>
+  </si>
+  <si>
+    <t>check the functionality for list tab 
+for household master.</t>
+  </si>
+  <si>
+    <t>GPS Tracking History</t>
+  </si>
+  <si>
+    <t>check the functionality of create tab for 
+GPS tracking history.</t>
+  </si>
+  <si>
+    <t>1.check that GPS tracking history will add id and that id will be auto-incremented.
+2.check that GPS tracking history will add GPS-id.
+3.check that GPS-id will be different not same.
+4.check that GPS tracking history will not accept same GPS-Id.
+5.check that GPS tracking history will add date.that
+will change 
+6.check that GPS tracking history will add longitude
+and latitude.
+7.check that GPS tracking history will not accept same longitude and latitude it must be differrnt.
+8.check that entering all valid data GPS tracking history details create or not.
+10.check that entering invalid dataGPS tracking history create or not.
+11.after creatingGPS tracking history that data will be stored in database or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.check that if we click on update it will shows all field i.e id,GPS-id,date,latitude,longitude.
+2.check that if we left any field blank then it will update or not.
+3.check that if we enter all valid data it will update or not.
+4.check that if we enter invalid data it will update or not.
+5.check datatable that updated data is stored in data-table or not.
+</t>
+  </si>
+  <si>
+    <t>check the functionality of delete tab for 
+GPS tracking history.</t>
+  </si>
+  <si>
+    <t>check the functionality of update tab for 
+GPS tracking history.</t>
+  </si>
+  <si>
+    <t>check the functionality of list tab for 
+GPS tracking history.</t>
+  </si>
+  <si>
+    <t>1.check that  it will shows all field  it will shows all field i.e id,GPS-id,date,latitude,longitude.
+2.check that list will show all filled data no one
+field is empty.</t>
   </si>
   <si>
     <t>1.check that user master will add user id number
@@ -206,13 +354,33 @@
 17.check that if all fields are enter then it will create a
 user.
 18.check that if one field is left blank it will not create user.
-19.check that user_id,user_name,user_type and password 
-fields are mandatory to fill.
-20.check that if mandatory fields left blank then it will show
-error message or user will not create.
+19.check that user_id,user_name,user_type and password  fields are mandatory to fill.
+20.check that if mandatory fields left blank then it will show error message or user will not create.
 21.check that all valid data is filled then it will create new user or not.
 22.check behaviour if we enter same id.
-23.check the behaviour if we enter invalid data.</t>
+23.check the behaviour if we enter invalid data.
+24.check that user master will add created_by name.
+25.check that user master will add created date-time in date format.
+26.check that user master will add modified by .
+27.check that user master will add modified date and time.</t>
+  </si>
+  <si>
+    <t>1.check that if click on update it will shows the 
+fields User_id,User_name,User_type,password,is active,created by,created datetime,modified by,modified datetime
+email_id,contact no,photo,address 1,address 2,
+city and state.
+2.check that user master not accepts the same user_id number ,it will be different.
+3.check that all the fields will be deleted .
+4.check that fields that we want to update that will
+be deleted and we can enter the new values.
+5.check that if mandatory fields left blank then
+it will not update it will pop_up an error message.
+6.check tthat if all mandatory fields are enter then
+it will update or not.
+7.check that if we enter all valid data then it will 
+update or not.
+8.check that if we enter invalid data then it will 
+update or not.</t>
   </si>
   <si>
     <t xml:space="preserve">1.check that user master will add user_type_id
@@ -227,10 +395,29 @@
 9.check that if we create a user master by filling all
 fields it will store in database or not.
 10.check the behaviour if we enter invalid data.
+11.check that user type master will add is active status.
+12.check that  user type master will add created by.
+13check that  user type master will add created datetime.
+14.check that user type master will add modified_by.
+15.check that user type master will add modified_datatime.
 </t>
   </si>
   <si>
-    <t>1.check module master will add module id.
+    <t>check the functionality of update for user type master.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.check that if we click on update it will shows all
+the fields user_type_id,user_type,user_type_description,is active,created by,created datetime,modified by,modified datetime.
+2.check that user_type_id will be different.
+3.check that user type master will not accept same 
+user id.
+4.check that if we left any field blank then it will update or not.
+5.check that if we enter all valid data it will update or not.
+6.check that if we enter invalid data it will update or not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.check module master will add module id.
 2.check that module id will be auto-incremented.
 3.check that module master will add module name.
 4.check that module id left blank then it will create 
@@ -238,11 +425,17 @@
 5.check that if we add both module id and name 
 and click on create it will store in the database table or not.
 6.check that module name left blank it will create 
-or not.</t>
+or not.
+7.check that module master will add is active status.
+8..check that module master will add created by
+9..check that module master will add created_datetime.
+10..check that module master will add modified by.
+.check that module master will add modified _datetime.
+</t>
   </si>
   <si>
     <t>1.check that if we click on update tab it will shows
-module id and module name .
+module id and module name ,is active status,created by,created-datetime,modified by,modified-datetime.
 2.check that if we left blank module name it will
 update or not.
 3.check that if we update data and click on update
@@ -250,38 +443,7 @@
 4.check that updated data is present in the list or not.</t>
   </si>
   <si>
-    <t>Check the functionality of delete tab for
-module master.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.check that if click on delete button then it will goes 
-to delete screen.
-2.check that it will shows all the fields .
-3.check that by click on delete tab it will delete all fields.
-4.check that if we  delete  one module master then it will not seen  in list.
-5.check that if we delete it then it will also delete
-from database or not.
-</t>
-  </si>
-  <si>
-    <t>Check the functionality of list tab for 
-module master.</t>
-  </si>
-  <si>
-    <t>1.check that list will show all fields i.e module id,
-module name.
-2.check that list will show all filled data no one
-field is empty.</t>
-  </si>
-  <si>
-    <t>User Types Module</t>
-  </si>
-  <si>
-    <t>Check the functionality of create tab
-for User Types Module.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.check that user type module will add id ,that id 
+    <t>1.check that user type module will add id ,that id 
 will be auto-incremented.
 2.check that user-type-modules will add user type
 id.
@@ -292,47 +454,19 @@
 6.check that entering all valid data it will create or not
 7.check that entering invalid data user-types-module
 create or not.
-8.check that after creating user-types-module all data will be stored in database or not. </t>
-  </si>
-  <si>
-    <t>check the functionality of update tab for
-user Types Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.check that if we click on update it will shows all field i.e id,user-type-id,module-id,is Active status
+8.check that after creating user-types-module all data will be stored in database or not. 
+9..check that user-type-module will add created by.
+10..check that user-type-module will add created datetime.
+11..check that user-type-module will add  modified by.
+12.check that user-type-module will add  modified-datetime.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.check that if we click on update it will shows all field i.e id,user-type-id,module-id,is Active status,created-by,created-datetime,modified by,modified-datetime.
 2.check that if we left any field blank then it will update or not.
 3.check that if we enter all valid data it will update or not.
 4.check that if we enter invalid data it will update or not.
 5.check datatable that updated data is stored in data-table or not.
 </t>
-  </si>
-  <si>
-    <t>check the functionality of delete tab for
-user Types Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.check that if click on delete button then it will goes to delete screen.
-2.check that it will shows all the fields .
-3.check that by clickign delete it will delete all fields.
-4.check the database that it will be deleted from 
-database or not.
-</t>
-  </si>
-  <si>
-    <t>Check the functionality of list for user 
-types Module.</t>
-  </si>
-  <si>
-    <t>1.check that list will show all fields i.e id,user-type-id,module-id,is Active status.
-2.check that list will show all filled data no one
-field is empty.</t>
-  </si>
-  <si>
-    <t>Action Master</t>
-  </si>
-  <si>
-    <t>Check the functionality of create tab
-for Action Master.</t>
   </si>
   <si>
     <t>1.check that action master will add module-action-id
@@ -348,15 +482,13 @@
 6.check that entering all valid data it will create module
 or not.
 7.check that entering invalid data it wii create module or not.
-8.check the database that created action master is stored in database or not</t>
-  </si>
-  <si>
-    <t>check the functionality of update tab for
-Action Master.</t>
+8.check the database that created action master is stored in database or not.
+9.check that action master will add created-by,created-datetime.
+10.check that action master will add  modified by,modified-datetime.</t>
   </si>
   <si>
     <t xml:space="preserve">1.check that if we click on update it will shows all field i.e module-action-id,module-action-name,
-module-action-desc,is active status.
+module-action-desc,is active status,created-by,created-datetime,modified-by,modified-datetime.
 2.check that if we left any field blank then it will update or not.
 3.check that if we enter all valid data it will update or not.
 4.check that if we enter invalid data it will update or not.
@@ -364,48 +496,31 @@
 </t>
   </si>
   <si>
-    <t>check the functionality of delete tab for
-Action Master.</t>
-  </si>
-  <si>
-    <t>check the functionality of list  for
-Action Master.</t>
-  </si>
-  <si>
     <t>1.check that  it will shows all field i.e module-action-id,module-action-name,
-module-action-desc,is active status.
+module-action-desc,is active status,created-by,created-datetime,modified-by,modified-datetime.
 2.check that list will show all filled data no one
 field is empty.</t>
   </si>
   <si>
-    <t>User-Security-Access-Details</t>
-  </si>
-  <si>
-    <t>check the functionality of create tab for
-user-security-access-details</t>
-  </si>
-  <si>
-    <t>1.check that user-security-access-details will add id that id is auto-incremented.
-2.check that user-security-access-details will add
-user-id.
-3..check that user-security-access-details will add
-module-id.
-4..check that user-security-access-details will add
-action-id.
-5.check that user-security-access-details will add
-has Access.
-6.check that all mandatory data will added or not. 
-7.check that if any field is left blank then user-security-access-details create or not.
-8.check that entering all valid data user-security-access-details create or not.
-9.check that entering invalid data user-security-access-details create or not.
-10.check that after creating user-security-access-details that data will be stored in database or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the functionality of update tab for
-user-security-access-details </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.check that if we click on update it will shows all field i.e id,user-id,module-id,action-id,has access
+    <t>1.check that RFID household details will add id and 
+that id will be auto-incremented.
+2..check that RFID household details will add RFID.
+3..check that RFID household details will add RFID-
+Description.
+4..check that RFID household details will add house
+hold-id.
+5.check that household id must be different not same.
+6.check that RFID must be unique not same.
+7.check that  RFID household details will add status.
+8.check that if any field left blank it will crate  RFID household details or not.
+9.check that entering all valid data RFID household details create or not.
+10.check that entering invalid data household details create or not.
+11.after creating RFID household details that data will be stored in database or not.
+12.check that RFID household details will add created by,created-datetime.
+13.check that RFID household details will add modified-by,modified-datetime.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.check that if we click on update it will shows all field i.e id,RFID ,RFID desc,household_id,status,created-by,created-datetime,modified-by,modified-datetime.
 2.check that if we left any field blank then it will update or not.
 3.check that if we enter all valid data it will update or not.
 4.check that if we enter invalid data it will update or not.
@@ -413,27 +528,9 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Check the functionality of delete tab for
-user-security-access-details </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the functionality of list tab for
-user-security-access-details </t>
-  </si>
-  <si>
-    <t>1.check that  it will shows all field it will shows all field i.e id,user-id,module-id,action-id,has access
+    <t>1.check that  it will shows all field it will shows all field i.e id,RFID ,RFID desc,household_id,status,created-by,created-datetime,modified-by,modified-datetime.
 2.check that list will show all filled data no one
 field is empty.</t>
-  </si>
-  <si>
-    <t>Household Master</t>
-  </si>
-  <si>
-    <t>Check the functionality of create tab for
-Household master.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>1.check that household master will add id and that
@@ -456,16 +553,14 @@
 master will create or not.
 11.check that entering all valid data household master will create or not.
 12.check that entering invalid data household master will create or not.
-13.check that after creating household master all data will be store in database or not.</t>
-  </si>
-  <si>
-    <t>check the functionality for update tab 
-for household master.</t>
+13.check that after creating household master all data will be store in database or not.
+14.check that  household master will add created_by,created_datetime.
+15.check that  household master will add modified by,modified_datetime.</t>
   </si>
   <si>
     <t xml:space="preserve">1.check that if we click on update it will shows all field i.e id,address1,address2,area,pin code,city
 state,latitude,longitude,household_name,email,
-contact no,ward id,valid from,valid to,status.
+contact no,ward id,valid from,valid to,status,created-by,created_datetime,modified_by,modified_datetime.
 2.check that if we left any field blank then it will update or not.
 3.check that if we enter all valid data it will update or not.
 4.check that if we enter invalid data it will update or not.
@@ -473,45 +568,35 @@
 </t>
   </si>
   <si>
-    <t>check the functionality for delete tab 
-for household master.</t>
-  </si>
-  <si>
     <t>1.check that  it will shows all field it will shows all field i.e id,address1,address2,area,pin code,city
 state,latitude,longitude,household_name,email,
-contact no,ward id,valid from,valid to,status.
+contact no,ward id,valid from,valid to,status,created_by,created_datetime,modified_by,modified_datetime.
 2.check that list will show all filled data no one
 field is empty.</t>
   </si>
   <si>
-    <t>RFID Household Details</t>
-  </si>
-  <si>
-    <t>check the functionality for create  tab 
-for RFID household details.</t>
-  </si>
-  <si>
-    <t>1.check that RFID household details will add id and 
-that id will be auto-incremented.
-2..check that RFID household details will add RFID.
-3..check that RFID household details will add RFID-
-Description.
-4..check that RFID household details will add house
-hold-id.
-5.check that household id must be different not same.
-6.check that RFID must be unique not same.
-7.check that  RFID household details will add status.
-8.check that if any field left blank it will crate  RFID household details or not.
-9.check that entering all valid data RFID household details create or not.
-10.check that entering invalid data household details create or not.
-11.after creating RFID household details that data will be stored in database or not.</t>
-  </si>
-  <si>
-    <t>check the functionality for update  tab 
-for RFID household details.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.check that if we click on update it will shows all field i.e id,RFID ,RFID desc,household_id,status.
+    <t>1.check that user-security-access-details will add id that id is auto-incremented.
+2.check that user-security-access-details will add
+user-id.
+3..check that user-security-access-details will add
+module-id.
+4..check that user-security-access-details will add
+action-id.
+5.check that user-security-access-details will add
+has Access.
+6.check that all mandatory data will added or not. 
+7.check that if any field is left blank then user-security-access-details create or not.
+8.check that entering all valid data user-security-access-details create or not.
+9.check that entering invalid data user-security-access-details create or not.
+10.check that after creating user-security-access-details that data will be stored in database or not.
+11.check that user-security-access-details will add
+created-by,created_datetime.
+12.check that user-security-access-details will add
+modified_by,modified_datetime.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.check that if we click on update it will shows all field i.e id,user-id,module-id,action-id,has access,created_by,created_datetime,modified_by,
+modified_datetime.
 2.check that if we left any field blank then it will update or not.
 3.check that if we enter all valid data it will update or not.
 4.check that if we enter invalid data it will update or not.
@@ -519,60 +604,7 @@
 </t>
   </si>
   <si>
-    <t>check the functionality for delete tab 
-for RFID household details.</t>
-  </si>
-  <si>
-    <t>check the functionality for list tab 
-for RFID household details.</t>
-  </si>
-  <si>
-    <t>check the functionality for list tab 
-for household master.</t>
-  </si>
-  <si>
-    <t>GPS Tracking History</t>
-  </si>
-  <si>
-    <t>check the functionality of create tab for 
-GPS tracking history.</t>
-  </si>
-  <si>
-    <t>1.check that GPS tracking history will add id and that id will be auto-incremented.
-2.check that GPS tracking history will add GPS-id.
-3.check that GPS-id will be different not same.
-4.check that GPS tracking history will not accept same GPS-Id.
-5.check that GPS tracking history will add date.that
-will change 
-6.check that GPS tracking history will add longitude
-and latitude.
-7.check that GPS tracking history will not accept same longitude and latitude it must be differrnt.
-8.check that entering all valid data GPS tracking history details create or not.
-10.check that entering invalid dataGPS tracking history create or not.
-11.after creatingGPS tracking history that data will be stored in database or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.check that if we click on update it will shows all field i.e id,GPS-id,date,latitude,longitude.
-2.check that if we left any field blank then it will update or not.
-3.check that if we enter all valid data it will update or not.
-4.check that if we enter invalid data it will update or not.
-5.check datatable that updated data is stored in data-table or not.
-</t>
-  </si>
-  <si>
-    <t>check the functionality of delete tab for 
-GPS tracking history.</t>
-  </si>
-  <si>
-    <t>check the functionality of update tab for 
-GPS tracking history.</t>
-  </si>
-  <si>
-    <t>check the functionality of list tab for 
-GPS tracking history.</t>
-  </si>
-  <si>
-    <t>1.check that  it will shows all field  it will shows all field i.e id,GPS-id,date,latitude,longitude.
+    <t>1.check that  it will shows all field it will shows all field i.e id,user-id,module-id,action-id,has access,created_by,created_datetime,modified_by,modified_datetime.
 2.check that list will show all filled data no one
 field is empty.</t>
   </si>
@@ -989,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1086,10 +1118,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="300">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="330">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -1100,7 +1132,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="150">
@@ -1108,13 +1140,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="75">
@@ -1122,20 +1154,20 @@
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1146,7 +1178,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="20" spans="1:11" ht="255">
+    <row r="20" spans="1:11" ht="405">
       <c r="A20" s="6">
         <v>1</v>
       </c>
@@ -1154,13 +1186,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="225">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="255">
       <c r="A21" s="6">
         <v>2</v>
       </c>
@@ -1168,10 +1200,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="150">
@@ -1179,13 +1211,13 @@
         <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60">
@@ -1193,20 +1225,20 @@
         <v>4</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1217,7 +1249,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:11" ht="210">
+    <row r="26" spans="1:11" ht="360">
       <c r="A26" s="6">
         <v>1</v>
       </c>
@@ -1225,13 +1257,13 @@
         <v>15</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="165">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="195">
       <c r="A27" s="6">
         <v>2</v>
       </c>
@@ -1239,10 +1271,10 @@
         <v>17</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="195">
@@ -1250,13 +1282,13 @@
         <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="60">
@@ -1264,13 +1296,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1280,7 +1312,7 @@
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="13" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1291,7 +1323,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" ht="270">
+    <row r="32" spans="1:11" ht="390">
       <c r="A32" s="6">
         <v>1</v>
       </c>
@@ -1299,13 +1331,13 @@
         <v>15</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="180">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="195">
       <c r="A33" s="6">
         <v>2</v>
       </c>
@@ -1313,10 +1345,10 @@
         <v>17</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="120">
@@ -1324,13 +1356,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="60">
@@ -1338,20 +1370,20 @@
         <v>4</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1362,7 +1394,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="1:11" ht="315">
+    <row r="37" spans="1:11" ht="375">
       <c r="A37" s="6">
         <v>1</v>
       </c>
@@ -1370,13 +1402,13 @@
         <v>15</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="180">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="210">
       <c r="A38" s="6">
         <v>2</v>
       </c>
@@ -1384,10 +1416,10 @@
         <v>17</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="120">
@@ -1395,34 +1427,34 @@
         <v>3</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="75">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="105">
       <c r="A40" s="6">
         <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="12" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -1433,7 +1465,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11" ht="330">
+    <row r="42" spans="1:11" ht="409.5">
       <c r="A42" s="6">
         <v>1</v>
       </c>
@@ -1441,13 +1473,13 @@
         <v>15</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="180">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="210">
       <c r="A43" s="6">
         <v>2</v>
       </c>
@@ -1455,10 +1487,10 @@
         <v>17</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="120">
@@ -1466,34 +1498,34 @@
         <v>3</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="75">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="90">
       <c r="A45" s="6">
         <v>4</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="12" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -1512,16 +1544,16 @@
         <v>15</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="195">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="240">
       <c r="A48" s="6">
         <v>2</v>
       </c>
@@ -1529,10 +1561,10 @@
         <v>17</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="120">
@@ -1540,34 +1572,34 @@
         <v>3</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="105">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="135">
       <c r="A50" s="6">
         <v>4</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="12" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -1578,7 +1610,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" ht="360">
+    <row r="52" spans="1:11" ht="409.5">
       <c r="A52" s="6">
         <v>1</v>
       </c>
@@ -1586,16 +1618,16 @@
         <v>15</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="165">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="195">
       <c r="A53" s="6">
         <v>2</v>
       </c>
@@ -1603,10 +1635,10 @@
         <v>17</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="120">
@@ -1617,31 +1649,31 @@
         <v>17</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="105">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="90">
       <c r="A55" s="6">
         <v>4</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="12" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -1660,10 +1692,10 @@
         <v>15</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="165">
@@ -1674,10 +1706,10 @@
         <v>17</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="120">
@@ -1685,13 +1717,13 @@
         <v>3</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="60">
@@ -1699,13 +1731,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Shubhangi/Use_Case_V_0_3.xlsx
+++ b/Shubhangi/Use_Case_V_0_3.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISWMS\Documents\ISWMS\Shubhangi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14295" windowHeight="4620"/>
   </bookViews>
@@ -612,8 +617,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,6 +726,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -777,7 +790,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -809,9 +822,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -843,6 +857,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1018,14 +1033,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
@@ -1033,12 +1048,12 @@
     <col min="4" max="4" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1046,10 +1061,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1057,7 +1072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -1065,7 +1080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -1073,12 +1088,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1092,7 +1107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="10" t="s">
@@ -1107,7 +1122,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" ht="409.5">
+    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -1121,7 +1136,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="330">
+    <row r="14" spans="1:11" ht="330" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -1135,7 +1150,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="150">
+    <row r="15" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -1149,7 +1164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="75">
+    <row r="16" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>4</v>
       </c>
@@ -1163,7 +1178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75">
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="11" t="s">
@@ -1178,7 +1193,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="20" spans="1:11" ht="405">
+    <row r="20" spans="1:11" ht="405" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>1</v>
       </c>
@@ -1192,7 +1207,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="255">
+    <row r="21" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2</v>
       </c>
@@ -1206,7 +1221,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="150">
+    <row r="22" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>3</v>
       </c>
@@ -1220,7 +1235,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="60">
+    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>4</v>
       </c>
@@ -1234,7 +1249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75">
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="12" t="s">
@@ -1249,7 +1264,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:11" ht="360">
+    <row r="26" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>1</v>
       </c>
@@ -1263,7 +1278,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="195">
+    <row r="27" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2</v>
       </c>
@@ -1277,7 +1292,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="195">
+    <row r="28" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>3</v>
       </c>
@@ -1291,7 +1306,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="60">
+    <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>4</v>
       </c>
@@ -1305,10 +1320,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75">
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="13" t="s">
@@ -1323,7 +1338,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" ht="390">
+    <row r="32" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>1</v>
       </c>
@@ -1337,7 +1352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="195">
+    <row r="33" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>2</v>
       </c>
@@ -1351,7 +1366,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="120">
+    <row r="34" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>3</v>
       </c>
@@ -1365,7 +1380,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="60">
+    <row r="35" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>4</v>
       </c>
@@ -1379,7 +1394,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75">
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="10" t="s">
@@ -1394,7 +1409,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="1:11" ht="375">
+    <row r="37" spans="1:11" ht="375" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>1</v>
       </c>
@@ -1408,7 +1423,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="210">
+    <row r="38" spans="1:11" ht="210" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>2</v>
       </c>
@@ -1422,7 +1437,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="120">
+    <row r="39" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>3</v>
       </c>
@@ -1436,7 +1451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="105">
+    <row r="40" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>4</v>
       </c>
@@ -1450,7 +1465,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="12" t="s">
@@ -1465,7 +1480,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11" ht="409.5">
+    <row r="42" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>1</v>
       </c>
@@ -1479,7 +1494,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="210">
+    <row r="43" spans="1:11" ht="210" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>2</v>
       </c>
@@ -1493,7 +1508,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="120">
+    <row r="44" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>3</v>
       </c>
@@ -1507,7 +1522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="90">
+    <row r="45" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>4</v>
       </c>
@@ -1521,7 +1536,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75">
+    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="12" t="s">
@@ -1536,7 +1551,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" ht="409.5">
+    <row r="47" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>1</v>
       </c>
@@ -1553,7 +1568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="240">
+    <row r="48" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>2</v>
       </c>
@@ -1567,7 +1582,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="120">
+    <row r="49" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>3</v>
       </c>
@@ -1581,7 +1596,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="135">
+    <row r="50" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>4</v>
       </c>
@@ -1595,7 +1610,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75">
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="12" t="s">
@@ -1610,7 +1625,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" ht="409.5">
+    <row r="52" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>1</v>
       </c>
@@ -1627,7 +1642,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="195">
+    <row r="53" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>2</v>
       </c>
@@ -1641,7 +1656,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="120">
+    <row r="54" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>3</v>
       </c>
@@ -1655,7 +1670,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="90">
+    <row r="55" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>4</v>
       </c>
@@ -1669,7 +1684,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.75">
+    <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="12" t="s">
@@ -1684,7 +1699,7 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:11" ht="300">
+    <row r="57" spans="1:11" ht="300" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>1</v>
       </c>
@@ -1698,7 +1713,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="165">
+    <row r="58" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>2</v>
       </c>
@@ -1712,7 +1727,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="120">
+    <row r="59" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>3</v>
       </c>
@@ -1726,7 +1741,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="60">
+    <row r="60" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>4</v>
       </c>
@@ -1750,24 +1765,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Shubhangi/Use_Case_V_0_3.xlsx
+++ b/Shubhangi/Use_Case_V_0_3.xlsx
@@ -42,9 +42,6 @@
     <t>CREATED DATE</t>
   </si>
   <si>
-    <t>20/12/2019</t>
-  </si>
-  <si>
     <t>REVIEW BY:</t>
   </si>
   <si>
@@ -295,20 +292,6 @@
 GPS tracking history.</t>
   </si>
   <si>
-    <t>1.check that GPS tracking history will add id and that id will be auto-incremented.
-2.check that GPS tracking history will add GPS-id.
-3.check that GPS-id will be different not same.
-4.check that GPS tracking history will not accept same GPS-Id.
-5.check that GPS tracking history will add date.that
-will change 
-6.check that GPS tracking history will add longitude
-and latitude.
-7.check that GPS tracking history will not accept same longitude and latitude it must be differrnt.
-8.check that entering all valid data GPS tracking history details create or not.
-10.check that entering invalid dataGPS tracking history create or not.
-11.after creatingGPS tracking history that data will be stored in database or not.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.check that if we click on update it will shows all field i.e id,GPS-id,date,latitude,longitude.
 2.check that if we left any field blank then it will update or not.
 3.check that if we enter all valid data it will update or not.
@@ -332,37 +315,6 @@
     <t>1.check that  it will shows all field  it will shows all field i.e id,GPS-id,date,latitude,longitude.
 2.check that list will show all filled data no one
 field is empty.</t>
-  </si>
-  <si>
-    <t>1.check that user master will add user id number
-autoincremented.
-2.check that user master will add user name.
-3.check that user master will not add same user name,user name will be different.
-4.check the behaviour if user name will not added.
-5.check that user master will add user_type 
-6.check that user type will  be same or different.
-7.check that user master will add password .
-8.check the behaviour if password will left blank.
-9.check that user master will add email id .
-10.check that it will accept email id in email format.
-11.check that user master will add contact number.
-12.check that user master will add photos .
-13.check that user master will add address 1.
-14.check that user master will add address 2
-15.check that user master will add city.
-16.check that user master will add state.
-17.check that if all fields are enter then it will create a
-user.
-18.check that if one field is left blank it will not create user.
-19.check that user_id,user_name,user_type and password  fields are mandatory to fill.
-20.check that if mandatory fields left blank then it will show error message or user will not create.
-21.check that all valid data is filled then it will create new user or not.
-22.check behaviour if we enter same id.
-23.check the behaviour if we enter invalid data.
-24.check that user master will add created_by name.
-25.check that user master will add created date-time in date format.
-26.check that user master will add modified by .
-27.check that user master will add modified date and time.</t>
   </si>
   <si>
     <t>1.check that if click on update it will shows the 
@@ -383,27 +335,166 @@
 update or not.</t>
   </si>
   <si>
+    <t>check the functionality of update for user type master.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.check that if we click on update it will shows all field i.e id,user-type-id,module-id,is Active status,created-by,created-datetime,modified by,modified-datetime.
+2.check that if we left any field blank then it will update or not.
+3.check that if we enter all valid data it will update or not.
+4.check that if we enter invalid data it will update or not.
+5.check datatable that updated data is stored in data-table or not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.check that if we click on update it will shows all field i.e module-action-id,module-action-name,
+module-action-desc,is active status,created-by,created-datetime,modified-by,modified-datetime.
+2.check that if we left any field blank then it will update or not.
+3.check that if we enter all valid data it will update or not.
+4.check that if we enter invalid data it will update or not.
+5.check datatable that updated data is stored in data-table or not.
+</t>
+  </si>
+  <si>
+    <t>1.check that  it will shows all field i.e module-action-id,module-action-name,
+module-action-desc,is active status,created-by,created-datetime,modified-by,modified-datetime.
+2.check that list will show all filled data no one
+field is empty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.check that if we click on update it will shows all field i.e id,RFID ,RFID desc,household_id,status,created-by,created-datetime,modified-by,modified-datetime.
+2.check that if we left any field blank then it will update or not.
+3.check that if we enter all valid data it will update or not.
+4.check that if we enter invalid data it will update or not.
+5.check datatable that updated data is stored in data-table or not.
+</t>
+  </si>
+  <si>
+    <t>1.check that  it will shows all field it will shows all field i.e id,RFID ,RFID desc,household_id,status,created-by,created-datetime,modified-by,modified-datetime.
+2.check that list will show all filled data no one
+field is empty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.check that if we click on update it will shows all field i.e id,address1,address2,area,pin code,city
+state,latitude,longitude,household_name,email,
+contact no,ward id,valid from,valid to,status,created-by,created_datetime,modified_by,modified_datetime.
+2.check that if we left any field blank then it will update or not.
+3.check that if we enter all valid data it will update or not.
+4.check that if we enter invalid data it will update or not.
+5.check datatable that updated data is stored in data-table or not.
+</t>
+  </si>
+  <si>
+    <t>1.check that  it will shows all field it will shows all field i.e id,address1,address2,area,pin code,city
+state,latitude,longitude,household_name,email,
+contact no,ward id,valid from,valid to,status,created_by,created_datetime,modified_by,modified_datetime.
+2.check that list will show all filled data no one
+field is empty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.check that if we click on update it will shows all field i.e id,user-id,module-id,action-id,has access,created_by,created_datetime,modified_by,
+modified_datetime.
+2.check that if we left any field blank then it will update or not.
+3.check that if we enter all valid data it will update or not.
+4.check that if we enter invalid data it will update or not.
+5.check datatable that updated data is stored in data-table or not.
+</t>
+  </si>
+  <si>
+    <t>1.check that  it will shows all field it will shows all field i.e id,user-id,module-id,action-id,has access,created_by,created_datetime,modified_by,modified_datetime.
+2.check that list will show all filled data no one
+field is empty.</t>
+  </si>
+  <si>
+    <t>1.check that user master will add user id number
+autoincremented.
+2.check that user master will add user name.
+3.check that user name field only accept character not numbers.
+4.check that user name field will not accept special
+character.
+5.check that user master will not add same user name,user name will be different.
+6.check the behaviour if user name will not added.
+7.check that user master will add user_type 
+8.check that user type will  be same or different.
+7.check that user master will add password .
+8.check that password will accept character.
+9.check that password will also accept numericals.
+10.check that password will accept special characters.
+11.check that passsword range is not too long.
+12.check that if we enter long range password it will not accept that password.
+13.check the behaviour if password will left blank.
+14.check that user master will add email id .
+15.check that it will accept email id in email format.
+16.check that email id field will accept characters,numericals,and special characters..
+17.check that if email id field left blank it will pop up error message or not.
+18.check that user master will add contact number.
+19.check that contact number will accept only upto 10 numbers.
+20.check that contact number will only accept numerics,it will not accept characters.
+21.check that contact number will not accept special characters and symbols.
+22.check that phone number field left blank it will pop-up error message.
+23.check that if we enter less number then also it will pop-up error message.
+24.check that if contact number range is higher then it will not accpet high range contact number.
+25.check that user master will add photos .
+26.check that photos field will accept photos in fix size.
+27.check that if photo size is large then it will not accept that photo.
+28.check that if photo size is less then it will not accept that photo.
+29.check that photo field will accept photo in jpg,pdf format.
+30.check that if photo is not uploaded then it will pop-up error message or not.
+31.check that user master will add address 1
+32.check that address 1 field accept characters,numericals,and also special characters.
+32.check the behaviour if address 1 field left blank.
+33.check that user master will add address 2
+34.check address 2 will accept characters,numericals, and special characters.
+35.check the behaviour if we left blank address 2 field .
+36.check that user master will add city.
+37.check that city field accept characters.
+38.check that user master will add state.
+39.check that user state field will accept characters
+40.check the behaviour if we left blank city and state.
+41.check that if all fields are enter then it will create a user or not.
+42.check that if one field is left blank it will not create user.
+43.check that user_id,user_name,user_type and password  fields are mandatory to fill.
+44.check that if mandatory fields left blank then it will show error message or user will not create.
+45.check that all valid data is filled then it will create new user or not.
+46.check behaviour if we enter same id.
+47.check the behaviour if we enter invalid data.
+48.check that user master will add created_by name.
+49.check that user master will add created date-time in date format.
+50.check that date will accept current date.
+51.check that date will show current date and time.
+52.check that user master will add modified by .
+53.check that user master will add modified date and time.
+54.check that date will accept current date.
+55.check that it will show current date and time only.</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.check that user master will add user_type_id
 2.check user_type_id will be auto-incremented.
 3.check that user master will add user type.
-4.check that user master will add user description.
-5.check that user master will not add same user type.
-6.check that all fields are mandatory to fill.
-7.check that if we left blank one field then it will 
+4.check that user type field accept charaters only,it will not accept numericals and special characters.
+5.check that user type field will accpept characters in range not accept long range.
+6.check that user master will add user description.
+7.check that user description field will accept characters and numericals.
+8.check the behaviour when we left blank user type and user description field.
+9.check that user master will accept same or different user type.
+10.check that all fields are mandatory to fill.
+11.check that if we left blank one field then it will 
 create or not.
-8.check the behaviour by entering all valid data.
-9.check that if we create a user master by filling all
+12.check the behaviour by entering all valid data.
+13.check that if we create a user master by filling all
 fields it will store in database or not.
-10.check the behaviour if we enter invalid data.
-11.check that user type master will add is active status.
-12.check that  user type master will add created by.
-13check that  user type master will add created datetime.
-14.check that user type master will add modified_by.
-15.check that user type master will add modified_datatime.
+14.check the behaviour if we enter invalid data.
+15.check that user type master will add is active status.
+16.check that  user type master will add created by.
+17.check that created by field accept characters.
+18.check that  user type master will add created datetime.
+19.check that created date will accept current date.
+20.check that created time will accept current time.
+21.check that user type master will add modified_by.
+22.modified by field will accept characters.
+23.check that user type master will add modified_datetime.
+24.check that modified date will accept current date.
+25.check that modified time will accept current time.
 </t>
-  </si>
-  <si>
-    <t>check the functionality of update for user type master.</t>
   </si>
   <si>
     <t xml:space="preserve">1.check that if we click on update it will shows all
@@ -414,23 +505,32 @@
 4.check that if we left any field blank then it will update or not.
 5.check that if we enter all valid data it will update or not.
 6.check that if we enter invalid data it will update or not.
+7.check that updated data is  stored in database or not.
 </t>
   </si>
   <si>
     <t xml:space="preserve">1.check module master will add module id.
 2.check that module id will be auto-incremented.
 3.check that module master will add module name.
-4.check that module id left blank then it will create 
+4.check that name field accept characters it will not accept numerics.
+5.check that name field left blank it will pop-up error message or not.
+6.check that module id left blank then it will create 
 or not.
-5.check that if we add both module id and name 
+7.check that if we add both module id and name 
 and click on create it will store in the database table or not.
 6.check that module name left blank it will create 
 or not.
 7.check that module master will add is active status.
-8..check that module master will add created by
-9..check that module master will add created_datetime.
-10..check that module master will add modified by.
-.check that module master will add modified _datetime.
+8..check that module master will add created by.
+9.check that created by field accept characters.
+10.check that module master will add created_datetime.
+11.check that module master will add current date.
+12.check that module master will add current time.
+13.check that module master will add modified by.
+14.check that modified field will accept characters .
+15.check that module master will add modified _datetime.
+16.check that modified date will accept current date.
+17.check that modified time will accept current time.
 </t>
   </si>
   <si>
@@ -440,173 +540,181 @@
 update or not.
 3.check that if we update data and click on update
 then that updated data is stored in the data table or not.
-4.check that updated data is present in the list or not.</t>
-  </si>
-  <si>
-    <t>1.check that user type module will add id ,that id 
+4.check that updated data is present in the list or not.
+5.check that updated data is stored in database or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.check that user type module will add id ,that id 
 will be auto-incremented.
 2.check that user-type-modules will add user type
 id.
-3.check that user-type-module will add module id
-4.check that user-type-module will add status or not.
-5.check that if one field left blank then it will not 
+3.check that user-type-module will add module id.
+4.check that module id will accept only numerics.
+5.check that module id will not accept special characters.
+6.check that module id will not accept characters.
+7.check that user-type-module will add status or not.
+8.check that if one field left blank then it will not 
 create user-types -module.
-6.check that entering all valid data it will create or not
-7.check that entering invalid data user-types-module
-create or not.
-8.check that after creating user-types-module all data will be stored in database or not. 
-9..check that user-type-module will add created by.
-10..check that user-type-module will add created datetime.
-11..check that user-type-module will add  modified by.
-12.check that user-type-module will add  modified-datetime.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.check that if we click on update it will shows all field i.e id,user-type-id,module-id,is Active status,created-by,created-datetime,modified by,modified-datetime.
-2.check that if we left any field blank then it will update or not.
-3.check that if we enter all valid data it will update or not.
-4.check that if we enter invalid data it will update or not.
-5.check datatable that updated data is stored in data-table or not.
+9.check that entering all valid data it will create or not
+10.check that entering invalid data user-types-module create or not.
+11.check that after creating user-types-module all data will be stored in database or not. 
+12.check that user-type-module will add created by.
+13.check that created by will accept alpha numeric characters.
+14.check that user-type-module will add created datetime.
+15.check that created date will accept current date.
+16.check that created time will accept current time.
+17.check that user-type-module will add  modified by.
+18.check that modified by field will accept alpha numerics characters.
+19.check that user-type-module will add  modified-datetime.
+20.check that modified date will accept current date.
+21.check that modified time will accept current time.
 </t>
   </si>
   <si>
-    <t>1.check that action master will add module-action-id
+    <t xml:space="preserve">1.check that action master will add module-action-id
 and that id will be auto incremented.
-2.check that action master will add module-action
--name.
-3.check that action master will add module-action
--decscription.
-4.check that action master will add status is active 
-or not.
-5.check that if one field left blank then module
-master will not created.
-6.check that entering all valid data it will create module
-or not.
-7.check that entering invalid data it wii create module or not.
-8.check the database that created action master is stored in database or not.
-9.check that action master will add created-by,created-datetime.
-10.check that action master will add  modified by,modified-datetime.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.check that if we click on update it will shows all field i.e module-action-id,module-action-name,
-module-action-desc,is active status,created-by,created-datetime,modified-by,modified-datetime.
-2.check that if we left any field blank then it will update or not.
-3.check that if we enter all valid data it will update or not.
-4.check that if we enter invalid data it will update or not.
-5.check datatable that updated data is stored in data-table or not.
+2.check that action master will add module-action-name.
+3.check that action name field will accept alpaha numeric characters.
+4.check that action name field will not accept special characters.
+5.check the behaviour if action name will left blank.
+6.check that action master will add module-action-description.
+7.check that module-action-description will accept alpha numeric characters.
+8.check the behaviour if module-action-description left blank.
+9.check that action master will add status is active or not.
+10.check that if one field left blank then module master will not created.
+11.check that entering all valid data it will create module or not.
+12.check that entering invalid data it wii create module or not.
+13.check the database that created action master is stored in database or not.
+14.check that action master will add created-by,created-datetime.
+15.check that action master will add  modified by,modified-datetime.
+16.check that created by will accept alpha numeric characters.
+17.check that user-type-module will add created datetime.
+18.check that created date will accept current date.
+19.check that created time will accept current time.
+20.check that user-type-module will add  modified by.
+21.check that modified by field will accept alpha numerics characters.
+22.check that user-type-module will add  modified-datetime.
+23.check that modified date will accept current date.
+24.check that modified time will accept current time.
 </t>
   </si>
   <si>
-    <t>1.check that  it will shows all field i.e module-action-id,module-action-name,
-module-action-desc,is active status,created-by,created-datetime,modified-by,modified-datetime.
-2.check that list will show all filled data no one
-field is empty.</t>
-  </si>
-  <si>
-    <t>1.check that RFID household details will add id and 
+    <t xml:space="preserve">1.check that user-security-access-details will add id that id is auto-incremented.
+2.check that user-security-access-details will add user-id.
+3.check that user-id will accept only numerics.it will not accept characters.
+4.check that user-security-access-details will add module-id.
+5.check that module-id will accept only numerics.it will not accept characters
+6.check that user-security-access-details will add action-id.
+7.check that action-id will accept only numerics.it will not accept characters
+8.check that user-security-access-details will add has Access.
+9.check that all mandatory data will added or not. 
+10.check that if any field is left blank then user-security-access-details create or not.
+11.check that entering all valid data user-security-access-details create or not.
+12.check that entering invalid data user-security-access-details create or not.
+13.check that after creating user-security-access-details that data will be stored in database or not.
+14.check that user-security-access-details will add created-by,created_datetime.
+15.check that user-security-access-details will add modified_by,modified_datetime.
+16.check that created by will accept alpha numeric characters.
+17.check that user-type-module will add created datetime.
+18.check that created date will accept current date.
+19.check that created time will accept current time.
+20.check that user-type-module will add  modified by.
+21.check that modified by field will accept alpha numerics characters.
+22.check that user-type-module will add  modified-datetime.
+23.check that modified date will accept current date.
+24.check that modified time will accept current time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.check that household master will add id and that id will be auto-incremented.
+2.check that household master will add address 1 &amp; address 2.
+3.check that address 1 and address 2 will accept alpha numeric characters.
+4.check that  household master will add area,pincode city and state. 
+5.check that area ,city,and state will accept alphanumeric characters.
+6.check that pincode will accept only numerics.
+7.check that  household master will add longitude and lattitude. 
+8.check the behaviour if area city and state pincode will left blank.
+9.check the behaviour longitude and lattitude will display or not.
+10.check that  household master will add household name.
+11.check that household name will accept alpha numeric characters.
+12.check the behaviour if household name will left blank.
+13.check that  household master will add email and contact no.
+14.check that email will accept alpha numeric characters and special characters.
+15.check that contact number will accept numerics only.
+16.check that contact will not accept characters.
+17.check that contact number will accept only 10 digit number.
+18.check the behaviour if we enter more than 10 digit number.
+19.check the behaviour if we enter less than 10 digit number.
+20.check the behaviour if we left blank contact no. and email id.
+21.check that  household master will add  ward id.
+22.check the ward id will accept only numerics it will not accept characters and special characters.
+23.check that  household master will add valid from and valid to 
+24.check that valid from date will only not accept current date, it will accept all dates.
+25.check that valid to date will only not accept current date, it will accept all dates.
+26.check that  household master will add status.
+27.check that  ward id number will not same it should be different.
+28.check that if any field left blank then household
+master will create or not.
+29.check that entering all valid data household master will create or not.
+30.check that entering invalid data household master will create or not.
+31.check that after creating household master all data will be store in database or not.
+32.check that  household master will add created_by,created_datetime.
+33.check that  household master will add modified by,modified_datetime.
+34.check that created by will accept alpha numeric characters.
+35.check that user-type-module will add created datetime.
+36.check that created date will accept current date.
+37.check that created time will accept current time.
+38.check that user-type-module will add  modified by.
+40.check that modified by field will accept alpha numerics characters.
+41.check that user-type-module will add  modified-datetime.
+42.check that modified date will accept current date.
+43.check that modified time will accept current time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.check that RFID household details will add id and 
 that id will be auto-incremented.
 2..check that RFID household details will add RFID.
-3..check that RFID household details will add RFID-
-Description.
-4..check that RFID household details will add house
-hold-id.
-5.check that household id must be different not same.
-6.check that RFID must be unique not same.
-7.check that  RFID household details will add status.
-8.check that if any field left blank it will crate  RFID household details or not.
-9.check that entering all valid data RFID household details create or not.
-10.check that entering invalid data household details create or not.
-11.after creating RFID household details that data will be stored in database or not.
-12.check that RFID household details will add created by,created-datetime.
-13.check that RFID household details will add modified-by,modified-datetime.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.check that if we click on update it will shows all field i.e id,RFID ,RFID desc,household_id,status,created-by,created-datetime,modified-by,modified-datetime.
-2.check that if we left any field blank then it will update or not.
-3.check that if we enter all valid data it will update or not.
-4.check that if we enter invalid data it will update or not.
-5.check datatable that updated data is stored in data-table or not.
+3.check that RFID will accept alpha numeric characters.
+4.check that RFID household details will add RFID-Description.
+5.check that RFID description will accept alpha numeric characters.
+6..check that RFID household details will add household-id.
+7.check that household id will accept numeric only it will not characters.
+8.check that household id must be different not same.
+9.check that RFID must be unique not same.
+10.check that  RFID household details will add status.
+11.check that if any field left blank it will crate  RFID household details or not.
+12.check that entering all valid data RFID household details create or not.
+13.check that entering invalid data household details create or not.
+14.after creating RFID household details that data will be stored in database or not.
+15.check that RFID household details will add created by,created-datetime.
+16.check that RFID household details will add modified-by,modified-datetime.
+17.check that created by will accept alpha numeric characters.
+18.check that user-type-module will add created datetime.
+19.check that created date will accept current date.
+20.check that created time will accept current time.
+21.check that user-type-module will add  modified by.
+22.check that modified by field will accept alpha numerics characters.
+23.check that user-type-module will add  modified-datetime.
+24.check that modified date will accept current date.
+25.check that modified time will accept current time.
 </t>
   </si>
   <si>
-    <t>1.check that  it will shows all field it will shows all field i.e id,RFID ,RFID desc,household_id,status,created-by,created-datetime,modified-by,modified-datetime.
-2.check that list will show all filled data no one
-field is empty.</t>
-  </si>
-  <si>
-    <t>1.check that household master will add id and that
-id will be auto-incremented.
-2.check that household master will add address 1 &amp;
-address 2.
-3check that  household master will add area,pincode city and state.
-4.check that  household master will add longitude
-and lattitude.
-5.check that  household master will add household
-name.
-6.check that  household master will add email and
-contact no.
-7.check that  household master will add  ward id.
-8.check that  household master will add valid from
-and valid to
-8.check that  household master will add status.
-9.check that  ward id number will not same it should be different.
-10.check that if any field left blank then household
-master will create or not.
-11.check that entering all valid data household master will create or not.
-12.check that entering invalid data household master will create or not.
-13.check that after creating household master all data will be store in database or not.
-14.check that  household master will add created_by,created_datetime.
-15.check that  household master will add modified by,modified_datetime.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.check that if we click on update it will shows all field i.e id,address1,address2,area,pin code,city
-state,latitude,longitude,household_name,email,
-contact no,ward id,valid from,valid to,status,created-by,created_datetime,modified_by,modified_datetime.
-2.check that if we left any field blank then it will update or not.
-3.check that if we enter all valid data it will update or not.
-4.check that if we enter invalid data it will update or not.
-5.check datatable that updated data is stored in data-table or not.
-</t>
-  </si>
-  <si>
-    <t>1.check that  it will shows all field it will shows all field i.e id,address1,address2,area,pin code,city
-state,latitude,longitude,household_name,email,
-contact no,ward id,valid from,valid to,status,created_by,created_datetime,modified_by,modified_datetime.
-2.check that list will show all filled data no one
-field is empty.</t>
-  </si>
-  <si>
-    <t>1.check that user-security-access-details will add id that id is auto-incremented.
-2.check that user-security-access-details will add
-user-id.
-3..check that user-security-access-details will add
-module-id.
-4..check that user-security-access-details will add
-action-id.
-5.check that user-security-access-details will add
-has Access.
-6.check that all mandatory data will added or not. 
-7.check that if any field is left blank then user-security-access-details create or not.
-8.check that entering all valid data user-security-access-details create or not.
-9.check that entering invalid data user-security-access-details create or not.
-10.check that after creating user-security-access-details that data will be stored in database or not.
-11.check that user-security-access-details will add
-created-by,created_datetime.
-12.check that user-security-access-details will add
-modified_by,modified_datetime.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.check that if we click on update it will shows all field i.e id,user-id,module-id,action-id,has access,created_by,created_datetime,modified_by,
-modified_datetime.
-2.check that if we left any field blank then it will update or not.
-3.check that if we enter all valid data it will update or not.
-4.check that if we enter invalid data it will update or not.
-5.check datatable that updated data is stored in data-table or not.
-</t>
-  </si>
-  <si>
-    <t>1.check that  it will shows all field it will shows all field i.e id,user-id,module-id,action-id,has access,created_by,created_datetime,modified_by,modified_datetime.
-2.check that list will show all filled data no one
-field is empty.</t>
+    <t>1.check that GPS tracking history will add id and that id will be auto-incremented.
+2.check that GPS tracking history will add GPS-id.
+3.check that GPS-Id will accept only numerics.
+4.check that GPS-id will be different not same.
+5.check that GPS tracking history will not accept same GPS-Id.
+5.check that GPS tracking history will add date.that will change 
+6.check that GPS tracking history will add longitude and latitude.
+7.check that GPS tracking history will not accept same longitude and latitude it must be differrnt.
+8.check that entering all valid data GPS tracking history details create or not.
+10.check that entering invalid dataGPS tracking history create or not.
+11.after creatingGPS tracking history that data will be stored in database or not.</t>
+  </si>
+  <si>
+    <t>26/12/2019</t>
   </si>
 </sst>
 </file>
@@ -1021,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1030,7 +1138,7 @@
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="78.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1070,33 +1178,33 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1112,41 +1220,41 @@
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="330">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="255">
       <c r="A14" s="6">
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="150">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="105">
       <c r="A15" s="6">
         <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="75">
@@ -1154,20 +1262,20 @@
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1178,46 +1286,46 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="20" spans="1:11" ht="405">
+    <row r="20" spans="1:11" ht="409.5">
       <c r="A20" s="6">
         <v>1</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="255">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="165">
       <c r="A21" s="6">
         <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="150">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="105">
       <c r="A22" s="6">
         <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60">
@@ -1225,20 +1333,20 @@
         <v>4</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1249,46 +1357,46 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:11" ht="360">
+    <row r="26" spans="1:11" ht="345">
       <c r="A26" s="6">
         <v>1</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="195">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="135">
       <c r="A27" s="6">
         <v>2</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="195">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="135">
       <c r="A28" s="6">
         <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="60">
@@ -1296,13 +1404,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1312,7 +1420,7 @@
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1328,62 +1436,62 @@
         <v>1</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="195">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="105">
       <c r="A33" s="6">
         <v>2</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="120">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="90">
       <c r="A34" s="6">
         <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="60">
+    </row>
+    <row r="35" spans="1:11" ht="45">
       <c r="A35" s="6">
         <v>4</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1394,67 +1502,67 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="1:11" ht="375">
+    <row r="37" spans="1:11" ht="390">
       <c r="A37" s="6">
         <v>1</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="210">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="135">
       <c r="A38" s="6">
         <v>2</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="120">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="90">
       <c r="A39" s="6">
         <v>3</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="105">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="75">
       <c r="A40" s="6">
         <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -1465,67 +1573,67 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11" ht="409.5">
+    <row r="42" spans="1:11" ht="390">
       <c r="A42" s="6">
         <v>1</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="210">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="120">
       <c r="A43" s="6">
         <v>2</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="120">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="90">
       <c r="A44" s="6">
         <v>3</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="90">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="75">
       <c r="A45" s="6">
         <v>4</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -1541,65 +1649,65 @@
         <v>1</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="240">
+    </row>
+    <row r="48" spans="1:11" ht="150">
       <c r="A48" s="6">
         <v>2</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="120">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="90">
       <c r="A49" s="6">
         <v>3</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="135">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="105">
       <c r="A50" s="6">
         <v>4</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -1610,70 +1718,70 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" ht="409.5">
+    <row r="52" spans="1:11" ht="405">
       <c r="A52" s="6">
         <v>1</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="195">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="120">
       <c r="A53" s="6">
         <v>2</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="120">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="90">
       <c r="A54" s="6">
         <v>3</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="90">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="75">
       <c r="A55" s="6">
         <v>4</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -1684,46 +1792,46 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:11" ht="300">
+    <row r="57" spans="1:11" ht="180">
       <c r="A57" s="6">
         <v>1</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="165">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="105">
       <c r="A58" s="6">
         <v>2</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="120">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="90">
       <c r="A59" s="6">
         <v>3</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="60">
@@ -1731,13 +1839,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Shubhangi/Use_Case_V_0_3.xlsx
+++ b/Shubhangi/Use_Case_V_0_3.xlsx
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Shubhangi/Use_Case_V_0_3.xlsx
+++ b/Shubhangi/Use_Case_V_0_3.xlsx
@@ -1129,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
